--- a/P1G1/CRONOGRAMA.xlsx
+++ b/P1G1/CRONOGRAMA.xlsx
@@ -70,9 +70,6 @@
     <t>FECHA</t>
   </si>
   <si>
-    <t xml:space="preserve">DIAGRA HIJO Y DE FLUJO </t>
-  </si>
-  <si>
     <t xml:space="preserve">PROYECTO UNIVERSIDAD </t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>PROCESO</t>
+  </si>
+  <si>
+    <t>DIAGRA HIJO</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,7 +514,7 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -657,7 +657,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>12</v>
@@ -667,16 +667,16 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="I7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
@@ -684,7 +684,7 @@
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5">
         <v>43970</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="G8" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="17">
         <v>0</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>13</v>
@@ -745,16 +745,16 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="I10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="15"/>
@@ -762,7 +762,7 @@
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5">
         <v>43970</v>
@@ -771,16 +771,16 @@
         <v>43971</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
@@ -797,13 +797,13 @@
         <v>43882</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="17">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="17">
         <v>0</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>14</v>
@@ -822,28 +822,28 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="I13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="K13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D14" s="5">
         <v>43970</v>
@@ -852,19 +852,19 @@
         <v>43971</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="I14" s="17">
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="17">
         <v>0</v>
@@ -882,19 +882,19 @@
         <v>43882</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="17">
         <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="17">
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" s="17">
         <v>0</v>

--- a/P1G1/CRONOGRAMA.xlsx
+++ b/P1G1/CRONOGRAMA.xlsx
@@ -20,41 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>ACTIVIDAD</t>
-  </si>
-  <si>
-    <t>GITHUB</t>
-  </si>
-  <si>
-    <t>DIAGRAMA COTEXTO</t>
-  </si>
-  <si>
-    <t>DIAGRA CERO</t>
-  </si>
-  <si>
-    <t>F. INICIO</t>
-  </si>
-  <si>
-    <t>F. FINAL</t>
-  </si>
-  <si>
-    <t>RESPONSABLE</t>
-  </si>
-  <si>
-    <t>% TERMIACION</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>LUIS LEE</t>
   </si>
   <si>
-    <t>GRUPAL</t>
-  </si>
-  <si>
     <t>PROGRAMA</t>
   </si>
   <si>
@@ -70,9 +40,6 @@
     <t>FECHA</t>
   </si>
   <si>
-    <t xml:space="preserve">PROYECTO UNIVERSIDAD </t>
-  </si>
-  <si>
     <t>JOSE JERONIMO</t>
   </si>
   <si>
@@ -104,6 +71,15 @@
   </si>
   <si>
     <t>DIAGRA HIJO</t>
+  </si>
+  <si>
+    <t>Login administrador</t>
+  </si>
+  <si>
+    <t>Login asignacion</t>
+  </si>
+  <si>
+    <t>Login mantenimientos</t>
   </si>
 </sst>
 </file>
@@ -154,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -190,17 +166,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -209,9 +208,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,6 +225,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O15"/>
+  <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,381 +536,343 @@
     <col min="3" max="3" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>43867</v>
-      </c>
-      <c r="E2" s="5">
-        <v>43867</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43970</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43971</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>43971</v>
+      </c>
+      <c r="E9" s="8">
+        <v>43882</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
-        <v>43867</v>
-      </c>
-      <c r="E3" s="5">
-        <v>43868</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4" t="s">
+      <c r="D10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43970</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43971</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>43971</v>
+      </c>
+      <c r="E12" s="8">
+        <v>43882</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43970</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43971</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="7">
+      <c r="G14" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>43867</v>
-      </c>
-      <c r="E4" s="5">
-        <v>43868</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4" t="s">
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>43971</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43882</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5">
-        <v>43970</v>
-      </c>
-      <c r="E8" s="5">
-        <v>43971</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="17">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="10">
-        <v>43971</v>
-      </c>
-      <c r="E9" s="10">
-        <v>43882</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="J16" t="s">
         <v>19</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5">
-        <v>43970</v>
-      </c>
-      <c r="E11" s="5">
-        <v>43971</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="17">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="17">
-        <v>1</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10">
-        <v>43971</v>
-      </c>
-      <c r="E12" s="10">
-        <v>43882</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="5">
-        <v>43970</v>
-      </c>
-      <c r="E14" s="5">
-        <v>43971</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="17">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="10">
-        <v>43971</v>
-      </c>
-      <c r="E15" s="5">
-        <v>43882</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="17">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
